--- a/CP2_AQ_HOUSTON/00_SavedDataframes/riopa_outdoor.xlsx
+++ b/CP2_AQ_HOUSTON/00_SavedDataframes/riopa_outdoor.xlsx
@@ -1243,7 +1243,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
         <v>54</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
         <v>55</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
         <v>56</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
         <v>57</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
         <v>58</v>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>290</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>300</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
         <v>60</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
         <v>61</v>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>320</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
         <v>62</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>323</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
         <v>63</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>326</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
         <v>64</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>329</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
         <v>65</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>332</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
         <v>66</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>335</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
         <v>67</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
-        <v>338</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
         <v>68</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>348</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
         <v>69</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>358</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
         <v>70</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>368</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
         <v>71</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>371</v>
+        <v>167</v>
       </c>
       <c r="B55" t="s">
         <v>72</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>374</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
         <v>73</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>384</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
         <v>74</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>394</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
         <v>75</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>407</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
         <v>76</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>410</v>
+        <v>185</v>
       </c>
       <c r="B60" t="s">
         <v>77</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
-        <v>420</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
         <v>78</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
-        <v>430</v>
+        <v>191</v>
       </c>
       <c r="B62" t="s">
         <v>79</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
-        <v>440</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
         <v>80</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
-        <v>450</v>
+        <v>197</v>
       </c>
       <c r="B64" t="s">
         <v>81</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="B65" t="s">
         <v>82</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1">
-        <v>463</v>
+        <v>203</v>
       </c>
       <c r="B66" t="s">
         <v>83</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1">
-        <v>472</v>
+        <v>205</v>
       </c>
       <c r="B67" t="s">
         <v>84</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1">
-        <v>482</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
         <v>85</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1">
-        <v>485</v>
+        <v>211</v>
       </c>
       <c r="B69" t="s">
         <v>86</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1">
-        <v>488</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s">
         <v>87</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1">
-        <v>512</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
         <v>88</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1">
-        <v>515</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
         <v>89</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1">
-        <v>518</v>
+        <v>222</v>
       </c>
       <c r="B73" t="s">
         <v>90</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1">
-        <v>545</v>
+        <v>225</v>
       </c>
       <c r="B74" t="s">
         <v>91</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1">
-        <v>548</v>
+        <v>228</v>
       </c>
       <c r="B75" t="s">
         <v>92</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1">
-        <v>551</v>
+        <v>231</v>
       </c>
       <c r="B76" t="s">
         <v>93</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1">
-        <v>554</v>
+        <v>234</v>
       </c>
       <c r="B77" t="s">
         <v>94</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1">
-        <v>557</v>
+        <v>237</v>
       </c>
       <c r="B78" t="s">
         <v>95</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1">
-        <v>560</v>
+        <v>240</v>
       </c>
       <c r="B79" t="s">
         <v>96</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1">
-        <v>563</v>
+        <v>243</v>
       </c>
       <c r="B80" t="s">
         <v>97</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1">
-        <v>566</v>
+        <v>246</v>
       </c>
       <c r="B81" t="s">
         <v>98</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1">
-        <v>569</v>
+        <v>249</v>
       </c>
       <c r="B82" t="s">
         <v>99</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1">
-        <v>572</v>
+        <v>252</v>
       </c>
       <c r="B83" t="s">
         <v>100</v>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1">
-        <v>575</v>
+        <v>255</v>
       </c>
       <c r="B84" t="s">
         <v>101</v>
@@ -5630,7 +5630,7 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1">
-        <v>578</v>
+        <v>258</v>
       </c>
       <c r="B85" t="s">
         <v>102</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1">
-        <v>581</v>
+        <v>261</v>
       </c>
       <c r="B86" t="s">
         <v>103</v>
@@ -5736,7 +5736,7 @@
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1">
-        <v>585</v>
+        <v>265</v>
       </c>
       <c r="B87" t="s">
         <v>104</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1">
-        <v>588</v>
+        <v>268</v>
       </c>
       <c r="B88" t="s">
         <v>105</v>
@@ -5842,7 +5842,7 @@
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="1">
-        <v>591</v>
+        <v>271</v>
       </c>
       <c r="B89" t="s">
         <v>106</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="1">
-        <v>594</v>
+        <v>274</v>
       </c>
       <c r="B90" t="s">
         <v>107</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="1">
-        <v>597</v>
+        <v>277</v>
       </c>
       <c r="B91" t="s">
         <v>108</v>
@@ -6001,7 +6001,7 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="1">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="B92" t="s">
         <v>109</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="1">
-        <v>604</v>
+        <v>284</v>
       </c>
       <c r="B93" t="s">
         <v>110</v>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="1">
-        <v>605</v>
+        <v>285</v>
       </c>
       <c r="B94" t="s">
         <v>110</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="1">
-        <v>609</v>
+        <v>289</v>
       </c>
       <c r="B95" t="s">
         <v>111</v>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="1">
-        <v>611</v>
+        <v>291</v>
       </c>
       <c r="B96" t="s">
         <v>112</v>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="1">
-        <v>612</v>
+        <v>292</v>
       </c>
       <c r="B97" t="s">
         <v>112</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="1">
-        <v>618</v>
+        <v>298</v>
       </c>
       <c r="B98" t="s">
         <v>113</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="1">
-        <v>621</v>
+        <v>301</v>
       </c>
       <c r="B99" t="s">
         <v>114</v>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="1">
-        <v>624</v>
+        <v>304</v>
       </c>
       <c r="B100" t="s">
         <v>115</v>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="1">
-        <v>627</v>
+        <v>307</v>
       </c>
       <c r="B101" t="s">
         <v>116</v>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="1">
-        <v>630</v>
+        <v>310</v>
       </c>
       <c r="B102" t="s">
         <v>117</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="1">
-        <v>637</v>
+        <v>313</v>
       </c>
       <c r="B103" t="s">
         <v>118</v>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="1">
-        <v>647</v>
+        <v>316</v>
       </c>
       <c r="B104" t="s">
         <v>119</v>
@@ -6690,7 +6690,7 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="1">
-        <v>657</v>
+        <v>319</v>
       </c>
       <c r="B105" t="s">
         <v>120</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="1">
-        <v>667</v>
+        <v>322</v>
       </c>
       <c r="B106" t="s">
         <v>121</v>
@@ -6796,7 +6796,7 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="1">
-        <v>677</v>
+        <v>325</v>
       </c>
       <c r="B107" t="s">
         <v>122</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="1">
-        <v>680</v>
+        <v>328</v>
       </c>
       <c r="B108" t="s">
         <v>123</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="1">
-        <v>683</v>
+        <v>331</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
@@ -6955,7 +6955,7 @@
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="1">
-        <v>686</v>
+        <v>334</v>
       </c>
       <c r="B110" t="s">
         <v>125</v>
@@ -7008,7 +7008,7 @@
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="1">
-        <v>689</v>
+        <v>337</v>
       </c>
       <c r="B111" t="s">
         <v>126</v>
@@ -7061,7 +7061,7 @@
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="1">
-        <v>698</v>
+        <v>339</v>
       </c>
       <c r="B112" t="s">
         <v>127</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="1">
-        <v>708</v>
+        <v>342</v>
       </c>
       <c r="B113" t="s">
         <v>128</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="1">
-        <v>718</v>
+        <v>345</v>
       </c>
       <c r="B114" t="s">
         <v>129</v>
@@ -7220,7 +7220,7 @@
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="1">
-        <v>721</v>
+        <v>348</v>
       </c>
       <c r="B115" t="s">
         <v>130</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="1">
-        <v>725</v>
+        <v>352</v>
       </c>
       <c r="B116" t="s">
         <v>131</v>
@@ -7326,7 +7326,7 @@
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="1">
-        <v>726</v>
+        <v>353</v>
       </c>
       <c r="B117" t="s">
         <v>131</v>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="1">
-        <v>737</v>
+        <v>357</v>
       </c>
       <c r="B118" t="s">
         <v>132</v>
@@ -7432,7 +7432,7 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="1">
-        <v>747</v>
+        <v>360</v>
       </c>
       <c r="B119" t="s">
         <v>133</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="120" spans="1:17">
       <c r="A120" s="1">
-        <v>757</v>
+        <v>363</v>
       </c>
       <c r="B120" t="s">
         <v>134</v>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="1">
-        <v>760</v>
+        <v>366</v>
       </c>
       <c r="B121" t="s">
         <v>135</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="1">
-        <v>782</v>
+        <v>374</v>
       </c>
       <c r="B122" t="s">
         <v>136</v>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="123" spans="1:17">
       <c r="A123" s="1">
-        <v>792</v>
+        <v>377</v>
       </c>
       <c r="B123" t="s">
         <v>137</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="1">
-        <v>802</v>
+        <v>380</v>
       </c>
       <c r="B124" t="s">
         <v>138</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="125" spans="1:17">
       <c r="A125" s="1">
-        <v>812</v>
+        <v>383</v>
       </c>
       <c r="B125" t="s">
         <v>139</v>
@@ -7803,7 +7803,7 @@
     </row>
     <row r="126" spans="1:17">
       <c r="A126" s="1">
-        <v>814</v>
+        <v>385</v>
       </c>
       <c r="B126" t="s">
         <v>140</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="1">
-        <v>833</v>
+        <v>390</v>
       </c>
       <c r="B127" t="s">
         <v>141</v>

--- a/CP2_AQ_HOUSTON/00_SavedDataframes/riopa_outdoor.xlsx
+++ b/CP2_AQ_HOUSTON/00_SavedDataframes/riopa_outdoor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="265">
   <si>
     <t>linkid</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>home_long</t>
-  </si>
-  <si>
-    <t>geoid</t>
   </si>
   <si>
     <t>TX103120</t>
@@ -1173,13 +1170,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U127"/>
+  <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,25 +1234,22 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>10886</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F2">
         <v>17.8</v>
@@ -1270,7 +1264,7 @@
         <v>36816</v>
       </c>
       <c r="J2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K2">
         <v>21.4366</v>
@@ -1294,21 +1288,21 @@
         <v>76.26386666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>10888</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F3">
         <v>13.4</v>
@@ -1323,7 +1317,7 @@
         <v>36795</v>
       </c>
       <c r="J3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K3">
         <v>19.0117</v>
@@ -1347,21 +1341,21 @@
         <v>63.29166666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>10964</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F4">
         <v>13.6</v>
@@ -1376,7 +1370,7 @@
         <v>36839</v>
       </c>
       <c r="J4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K4">
         <v>28.4035</v>
@@ -1400,21 +1394,21 @@
         <v>78.05553333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>10980</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F5">
         <v>3.6</v>
@@ -1429,7 +1423,7 @@
         <v>36875</v>
       </c>
       <c r="J5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K5">
         <v>12.1109</v>
@@ -1453,21 +1447,21 @@
         <v>61.35333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>10001</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F6">
         <v>9.300000000000001</v>
@@ -1482,7 +1476,7 @@
         <v>36334</v>
       </c>
       <c r="J6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K6">
         <v>27.08</v>
@@ -1506,21 +1500,21 @@
         <v>86.69386666666668</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>10041</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7">
         <v>17.5</v>
@@ -1535,7 +1529,7 @@
         <v>36340</v>
       </c>
       <c r="J7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K7">
         <v>29.51</v>
@@ -1559,21 +1553,21 @@
         <v>75.7075</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>10091</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F8">
         <v>10.6</v>
@@ -1588,7 +1582,7 @@
         <v>36362</v>
       </c>
       <c r="J8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K8">
         <v>28.36</v>
@@ -1612,21 +1606,21 @@
         <v>77.7847</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>10086</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F9">
         <v>11.4</v>
@@ -1641,7 +1635,7 @@
         <v>36369</v>
       </c>
       <c r="J9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K9">
         <v>30.23</v>
@@ -1665,21 +1659,21 @@
         <v>76.49076666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>10083</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10">
         <v>13.1</v>
@@ -1694,7 +1688,7 @@
         <v>36390</v>
       </c>
       <c r="J10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K10">
         <v>30.96</v>
@@ -1718,21 +1712,21 @@
         <v>69.06523333333332</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>10088</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F11">
         <v>12.4</v>
@@ -1747,7 +1741,7 @@
         <v>36390</v>
       </c>
       <c r="J11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K11">
         <v>31.07</v>
@@ -1771,21 +1765,21 @@
         <v>69.21526666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>10000</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F12">
         <v>25.2</v>
@@ -1800,7 +1794,7 @@
         <v>36403</v>
       </c>
       <c r="J12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K12">
         <v>26.2594</v>
@@ -1824,21 +1818,21 @@
         <v>83.12593333333334</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>10006</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F13">
         <v>10.4</v>
@@ -1853,7 +1847,7 @@
         <v>36405</v>
       </c>
       <c r="J13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K13">
         <v>28.6157</v>
@@ -1877,21 +1871,21 @@
         <v>79.23610000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>10008</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F14">
         <v>15.6</v>
@@ -1906,7 +1900,7 @@
         <v>36411</v>
       </c>
       <c r="J14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K14">
         <v>29.96</v>
@@ -1930,21 +1924,21 @@
         <v>66.63250000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>10009</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F15">
         <v>17.3</v>
@@ -1959,7 +1953,7 @@
         <v>36411</v>
       </c>
       <c r="J15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K15">
         <v>30.03</v>
@@ -1983,21 +1977,21 @@
         <v>66.11156666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>10117</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F16">
         <v>9.5</v>
@@ -2012,7 +2006,7 @@
         <v>36430</v>
       </c>
       <c r="J16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K16">
         <v>24.6</v>
@@ -2041,16 +2035,16 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>10118</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F17">
         <v>25.4</v>
@@ -2065,7 +2059,7 @@
         <v>36437</v>
       </c>
       <c r="J17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K17">
         <v>23.3</v>
@@ -2094,16 +2088,16 @@
         <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>10145</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F18">
         <v>24.9</v>
@@ -2118,7 +2112,7 @@
         <v>36446</v>
       </c>
       <c r="J18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K18">
         <v>25.35</v>
@@ -2147,16 +2141,16 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>10151</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F19">
         <v>13.3</v>
@@ -2171,7 +2165,7 @@
         <v>36452</v>
       </c>
       <c r="J19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K19">
         <v>15.19</v>
@@ -2200,16 +2194,16 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>10156</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F20">
         <v>23.2</v>
@@ -2224,7 +2218,7 @@
         <v>36479</v>
       </c>
       <c r="J20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K20">
         <v>17.2</v>
@@ -2253,16 +2247,16 @@
         <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>10187</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F21">
         <v>9</v>
@@ -2277,7 +2271,7 @@
         <v>36495</v>
       </c>
       <c r="J21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K21">
         <v>19.86</v>
@@ -2306,16 +2300,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>10161</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F22">
         <v>13</v>
@@ -2330,7 +2324,7 @@
         <v>36515</v>
       </c>
       <c r="J22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K22">
         <v>9.35</v>
@@ -2359,16 +2353,16 @@
         <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>10342</v>
       </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F23">
         <v>12.1</v>
@@ -2383,7 +2377,7 @@
         <v>36528</v>
       </c>
       <c r="J23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K23">
         <v>9.800000000000001</v>
@@ -2412,16 +2406,16 @@
         <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>10343</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F24">
         <v>17.8</v>
@@ -2436,7 +2430,7 @@
         <v>36528</v>
       </c>
       <c r="J24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K24">
         <v>11.1964</v>
@@ -2465,16 +2459,16 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>10344</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F25">
         <v>13.8</v>
@@ -2489,7 +2483,7 @@
         <v>36530</v>
       </c>
       <c r="J25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K25">
         <v>14.4108</v>
@@ -2518,16 +2512,16 @@
         <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>10258</v>
       </c>
       <c r="D26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F26">
         <v>23.3</v>
@@ -2542,7 +2536,7 @@
         <v>36558</v>
       </c>
       <c r="J26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K26">
         <v>12.9161</v>
@@ -2571,16 +2565,16 @@
         <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>10216</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F27">
         <v>9.5</v>
@@ -2595,7 +2589,7 @@
         <v>36565</v>
       </c>
       <c r="J27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K27">
         <v>18.7331</v>
@@ -2624,16 +2618,16 @@
         <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>10274</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F28">
         <v>9.199999999999999</v>
@@ -2648,7 +2642,7 @@
         <v>36572</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K28">
         <v>20.9822</v>
@@ -2677,16 +2671,16 @@
         <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>10219</v>
       </c>
       <c r="D29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F29">
         <v>19.2</v>
@@ -2701,7 +2695,7 @@
         <v>36570</v>
       </c>
       <c r="J29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K29">
         <v>20.5301</v>
@@ -2730,16 +2724,16 @@
         <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>10220</v>
       </c>
       <c r="D30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F30">
         <v>15.5</v>
@@ -2754,7 +2748,7 @@
         <v>36570</v>
       </c>
       <c r="J30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K30">
         <v>20.4859</v>
@@ -2783,16 +2777,16 @@
         <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>10273</v>
       </c>
       <c r="D31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -2807,7 +2801,7 @@
         <v>36572</v>
       </c>
       <c r="J31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K31">
         <v>21.2817</v>
@@ -2836,16 +2830,16 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>10276</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F32">
         <v>10.7</v>
@@ -2860,7 +2854,7 @@
         <v>36577</v>
       </c>
       <c r="J32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K32">
         <v>19.0231</v>
@@ -2889,16 +2883,16 @@
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>10276</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F33">
         <v>10.7</v>
@@ -2913,7 +2907,7 @@
         <v>36577</v>
       </c>
       <c r="J33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K33">
         <v>19.0231</v>
@@ -2942,16 +2936,16 @@
         <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>10277</v>
       </c>
       <c r="D34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F34">
         <v>9.800000000000001</v>
@@ -2966,7 +2960,7 @@
         <v>36577</v>
       </c>
       <c r="J34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K34">
         <v>19.6259</v>
@@ -2995,16 +2989,16 @@
         <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>10376</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F35">
         <v>12.2</v>
@@ -3019,7 +3013,7 @@
         <v>36579</v>
       </c>
       <c r="J35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K35">
         <v>21.2762</v>
@@ -3048,16 +3042,16 @@
         <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>10349</v>
       </c>
       <c r="D36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F36">
         <v>13</v>
@@ -3072,7 +3066,7 @@
         <v>36579</v>
       </c>
       <c r="J36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K36">
         <v>21.1609</v>
@@ -3101,16 +3095,16 @@
         <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>10374</v>
       </c>
       <c r="D37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F37">
         <v>8.4</v>
@@ -3125,7 +3119,7 @@
         <v>36584</v>
       </c>
       <c r="J37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K37">
         <v>20.6925</v>
@@ -3154,16 +3148,16 @@
         <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>10417</v>
       </c>
       <c r="D38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F38">
         <v>11.8</v>
@@ -3178,7 +3172,7 @@
         <v>36598</v>
       </c>
       <c r="J38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K38">
         <v>17.1978</v>
@@ -3207,16 +3201,16 @@
         <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>10414</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F39">
         <v>10</v>
@@ -3231,7 +3225,7 @@
         <v>36598</v>
       </c>
       <c r="J39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K39">
         <v>17.2697</v>
@@ -3260,16 +3254,16 @@
         <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>10421</v>
       </c>
       <c r="D40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F40">
         <v>16.5</v>
@@ -3284,7 +3278,7 @@
         <v>36600</v>
       </c>
       <c r="J40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K40">
         <v>19.1386</v>
@@ -3313,16 +3307,16 @@
         <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>10422</v>
       </c>
       <c r="D41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F41">
         <v>15.1</v>
@@ -3337,7 +3331,7 @@
         <v>36600</v>
       </c>
       <c r="J41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K41">
         <v>20.0213</v>
@@ -3366,16 +3360,16 @@
         <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>10465</v>
       </c>
       <c r="D42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F42">
         <v>7.8</v>
@@ -3390,7 +3384,7 @@
         <v>36605</v>
       </c>
       <c r="J42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K42">
         <v>20.1828</v>
@@ -3419,16 +3413,16 @@
         <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>10464</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F43">
         <v>7.8</v>
@@ -3443,7 +3437,7 @@
         <v>36605</v>
       </c>
       <c r="J43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K43">
         <v>20.0244</v>
@@ -3472,16 +3466,16 @@
         <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <v>10480</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F44">
         <v>13.3</v>
@@ -3496,7 +3490,7 @@
         <v>36607</v>
       </c>
       <c r="J44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K44">
         <v>21.3384</v>
@@ -3525,16 +3519,16 @@
         <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>10479</v>
       </c>
       <c r="D45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F45">
         <v>12.7</v>
@@ -3549,7 +3543,7 @@
         <v>36607</v>
       </c>
       <c r="J45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K45">
         <v>21.3257</v>
@@ -3578,16 +3572,16 @@
         <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>10544</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F46">
         <v>9.699999999999999</v>
@@ -3602,7 +3596,7 @@
         <v>36621</v>
       </c>
       <c r="J46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K46">
         <v>21.5019</v>
@@ -3631,16 +3625,16 @@
         <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47">
         <v>10476</v>
       </c>
       <c r="D47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F47">
         <v>17.5</v>
@@ -3655,7 +3649,7 @@
         <v>36612</v>
       </c>
       <c r="J47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K47">
         <v>22.2983</v>
@@ -3684,16 +3678,16 @@
         <v>146</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>10470</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F48">
         <v>34</v>
@@ -3708,7 +3702,7 @@
         <v>36614</v>
       </c>
       <c r="J48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K48">
         <v>21.1913</v>
@@ -3737,16 +3731,16 @@
         <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49">
         <v>10471</v>
       </c>
       <c r="D49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F49">
         <v>9.5</v>
@@ -3761,7 +3755,7 @@
         <v>36619</v>
       </c>
       <c r="J49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K49">
         <v>13.8766</v>
@@ -3790,16 +3784,16 @@
         <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50">
         <v>10474</v>
       </c>
       <c r="D50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F50">
         <v>8.9</v>
@@ -3814,7 +3808,7 @@
         <v>36619</v>
       </c>
       <c r="J50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K50">
         <v>13.8058</v>
@@ -3843,16 +3837,16 @@
         <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51">
         <v>10546</v>
       </c>
       <c r="D51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F51">
         <v>8.699999999999999</v>
@@ -3867,7 +3861,7 @@
         <v>36621</v>
       </c>
       <c r="J51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K51">
         <v>21.1756</v>
@@ -3896,16 +3890,16 @@
         <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52">
         <v>10549</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F52">
         <v>6.4</v>
@@ -3920,7 +3914,7 @@
         <v>36626</v>
       </c>
       <c r="J52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K52">
         <v>20.7018</v>
@@ -3949,16 +3943,16 @@
         <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53">
         <v>10597</v>
       </c>
       <c r="D53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F53">
         <v>21.8</v>
@@ -3973,7 +3967,7 @@
         <v>36644</v>
       </c>
       <c r="J53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K53">
         <v>23.8889</v>
@@ -4002,16 +3996,16 @@
         <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54">
         <v>10538</v>
       </c>
       <c r="D54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F54">
         <v>11.3</v>
@@ -4026,7 +4020,7 @@
         <v>36628</v>
       </c>
       <c r="J54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K54">
         <v>16.5511</v>
@@ -4055,16 +4049,16 @@
         <v>167</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55">
         <v>10551</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F55">
         <v>16.3</v>
@@ -4079,7 +4073,7 @@
         <v>36633</v>
       </c>
       <c r="J55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K55">
         <v>25.0148</v>
@@ -4108,16 +4102,16 @@
         <v>170</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56">
         <v>10553</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F56">
         <v>13.5</v>
@@ -4132,7 +4126,7 @@
         <v>36635</v>
       </c>
       <c r="J56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K56">
         <v>23.2093</v>
@@ -4161,16 +4155,16 @@
         <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57">
         <v>10554</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F57">
         <v>18</v>
@@ -4185,7 +4179,7 @@
         <v>36642</v>
       </c>
       <c r="J57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K57">
         <v>23.4899</v>
@@ -4214,16 +4208,16 @@
         <v>176</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58">
         <v>10596</v>
       </c>
       <c r="D58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F58">
         <v>19.4</v>
@@ -4238,7 +4232,7 @@
         <v>36644</v>
       </c>
       <c r="J58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K58">
         <v>24.1377</v>
@@ -4267,16 +4261,16 @@
         <v>182</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59">
         <v>10601</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F59">
         <v>8.1</v>
@@ -4291,7 +4285,7 @@
         <v>36647</v>
       </c>
       <c r="J59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K59">
         <v>21.2178</v>
@@ -4320,16 +4314,16 @@
         <v>185</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60">
         <v>10609</v>
       </c>
       <c r="D60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F60">
         <v>13</v>
@@ -4344,7 +4338,7 @@
         <v>36654</v>
       </c>
       <c r="J60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K60">
         <v>26.1573</v>
@@ -4373,16 +4367,16 @@
         <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61">
         <v>10605</v>
       </c>
       <c r="D61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E61" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F61">
         <v>10.6</v>
@@ -4397,7 +4391,7 @@
         <v>36654</v>
       </c>
       <c r="J61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K61">
         <v>25.7523</v>
@@ -4426,16 +4420,16 @@
         <v>191</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62">
         <v>10611</v>
       </c>
       <c r="D62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F62">
         <v>14.6</v>
@@ -4450,7 +4444,7 @@
         <v>36656</v>
       </c>
       <c r="J62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K62">
         <v>26.9953</v>
@@ -4479,16 +4473,16 @@
         <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63">
         <v>10612</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F63">
         <v>14.4</v>
@@ -4503,7 +4497,7 @@
         <v>36656</v>
       </c>
       <c r="J63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K63">
         <v>27.1684</v>
@@ -4532,16 +4526,16 @@
         <v>197</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64">
         <v>10641</v>
       </c>
       <c r="D64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F64">
         <v>15.7</v>
@@ -4556,7 +4550,7 @@
         <v>36661</v>
       </c>
       <c r="J64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K64">
         <v>26.3258</v>
@@ -4585,16 +4579,16 @@
         <v>200</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65">
         <v>10638</v>
       </c>
       <c r="D65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E65" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F65">
         <v>12.5</v>
@@ -4609,7 +4603,7 @@
         <v>36663</v>
       </c>
       <c r="J65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K65">
         <v>27.7597</v>
@@ -4638,16 +4632,16 @@
         <v>203</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66">
         <v>10633</v>
       </c>
       <c r="D66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F66">
         <v>13.2</v>
@@ -4662,7 +4656,7 @@
         <v>36682</v>
       </c>
       <c r="J66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K66">
         <v>24.7754</v>
@@ -4691,16 +4685,16 @@
         <v>205</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67">
         <v>10632</v>
       </c>
       <c r="D67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F67">
         <v>18.6</v>
@@ -4715,7 +4709,7 @@
         <v>36682</v>
       </c>
       <c r="J67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K67">
         <v>24.5625</v>
@@ -4744,16 +4738,16 @@
         <v>208</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68">
         <v>10635</v>
       </c>
       <c r="D68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F68">
         <v>19</v>
@@ -4768,7 +4762,7 @@
         <v>36684</v>
       </c>
       <c r="J68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K68">
         <v>26.6548</v>
@@ -4797,16 +4791,16 @@
         <v>211</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69">
         <v>10644</v>
       </c>
       <c r="D69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F69">
         <v>9.199999999999999</v>
@@ -4821,7 +4815,7 @@
         <v>36689</v>
       </c>
       <c r="J69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K69">
         <v>28.3267</v>
@@ -4850,16 +4844,16 @@
         <v>214</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70">
         <v>10866</v>
       </c>
       <c r="D70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F70">
         <v>30.2</v>
@@ -4874,7 +4868,7 @@
         <v>36774</v>
       </c>
       <c r="J70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K70">
         <v>29.2</v>
@@ -4903,16 +4897,16 @@
         <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71">
         <v>10990</v>
       </c>
       <c r="D71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F71">
         <v>11.7</v>
@@ -4927,7 +4921,7 @@
         <v>36929</v>
       </c>
       <c r="J71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K71">
         <v>19.2571</v>
@@ -4944,16 +4938,16 @@
         <v>219</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72">
         <v>10011</v>
       </c>
       <c r="D72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F72">
         <v>23.1</v>
@@ -4968,7 +4962,7 @@
         <v>36418</v>
       </c>
       <c r="J72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K72">
         <v>27.2921</v>
@@ -4997,16 +4991,16 @@
         <v>222</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73">
         <v>10381</v>
       </c>
       <c r="D73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F73">
         <v>11.3</v>
@@ -5021,7 +5015,7 @@
         <v>36586</v>
       </c>
       <c r="J73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K73">
         <v>22.3929</v>
@@ -5050,16 +5044,16 @@
         <v>225</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74">
         <v>10183</v>
       </c>
       <c r="D74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F74">
         <v>28.4</v>
@@ -5074,7 +5068,7 @@
         <v>36472</v>
       </c>
       <c r="J74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K74">
         <v>19.36</v>
@@ -5103,16 +5097,16 @@
         <v>228</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75">
         <v>10148</v>
       </c>
       <c r="D75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F75">
         <v>33.3</v>
@@ -5127,7 +5121,7 @@
         <v>36472</v>
       </c>
       <c r="J75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K75">
         <v>18.3822</v>
@@ -5156,16 +5150,16 @@
         <v>231</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76">
         <v>10154</v>
       </c>
       <c r="D76" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F76">
         <v>19.2</v>
@@ -5180,7 +5174,7 @@
         <v>36479</v>
       </c>
       <c r="J76" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K76">
         <v>17.791</v>
@@ -5209,16 +5203,16 @@
         <v>234</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77">
         <v>10248</v>
       </c>
       <c r="D77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F77">
         <v>9.5</v>
@@ -5233,7 +5227,7 @@
         <v>36536</v>
       </c>
       <c r="J77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K77">
         <v>22.482</v>
@@ -5262,16 +5256,16 @@
         <v>237</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78">
         <v>10034</v>
       </c>
       <c r="D78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F78">
         <v>25.1</v>
@@ -5286,7 +5280,7 @@
         <v>36493</v>
       </c>
       <c r="J78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K78">
         <v>14.6238</v>
@@ -5315,16 +5309,16 @@
         <v>240</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79">
         <v>10037</v>
       </c>
       <c r="D79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E79" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F79">
         <v>11.1</v>
@@ -5339,7 +5333,7 @@
         <v>36486</v>
       </c>
       <c r="J79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K79">
         <v>19.6725</v>
@@ -5368,16 +5362,16 @@
         <v>243</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80">
         <v>10339</v>
       </c>
       <c r="D80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F80">
         <v>12.4</v>
@@ -5392,7 +5386,7 @@
         <v>36515</v>
       </c>
       <c r="J80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K80">
         <v>8.479789999999999</v>
@@ -5421,16 +5415,16 @@
         <v>246</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81">
         <v>10186</v>
       </c>
       <c r="D81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F81">
         <v>22.9</v>
@@ -5445,7 +5439,7 @@
         <v>36493</v>
       </c>
       <c r="J81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K81">
         <v>14.9697</v>
@@ -5474,16 +5468,16 @@
         <v>249</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82">
         <v>10280</v>
       </c>
       <c r="D82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E82" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F82">
         <v>14.3</v>
@@ -5498,7 +5492,7 @@
         <v>36538</v>
       </c>
       <c r="J82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K82">
         <v>15.9369</v>
@@ -5527,16 +5521,16 @@
         <v>252</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C83">
         <v>10247</v>
       </c>
       <c r="D83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F83">
         <v>10.1</v>
@@ -5551,7 +5545,7 @@
         <v>36536</v>
       </c>
       <c r="J83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K83">
         <v>22.6114</v>
@@ -5580,16 +5574,16 @@
         <v>255</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C84">
         <v>10256</v>
       </c>
       <c r="D84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E84" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F84">
         <v>19.2</v>
@@ -5604,7 +5598,7 @@
         <v>36556</v>
       </c>
       <c r="J84" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K84">
         <v>11.1524</v>
@@ -5633,16 +5627,16 @@
         <v>258</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85">
         <v>10257</v>
       </c>
       <c r="D85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E85" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F85">
         <v>19.2</v>
@@ -5657,7 +5651,7 @@
         <v>36556</v>
       </c>
       <c r="J85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K85">
         <v>10.9958</v>
@@ -5686,16 +5680,16 @@
         <v>261</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C86">
         <v>10384</v>
       </c>
       <c r="D86" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E86" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F86">
         <v>11.4</v>
@@ -5710,7 +5704,7 @@
         <v>36595</v>
       </c>
       <c r="J86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K86">
         <v>16.9865</v>
@@ -5739,16 +5733,16 @@
         <v>265</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C87">
         <v>10677</v>
       </c>
       <c r="D87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F87">
         <v>17.6</v>
@@ -5763,7 +5757,7 @@
         <v>36705</v>
       </c>
       <c r="J87" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K87">
         <v>29.2785</v>
@@ -5792,16 +5786,16 @@
         <v>268</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C88">
         <v>10647</v>
       </c>
       <c r="D88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F88">
         <v>14.6</v>
@@ -5816,7 +5810,7 @@
         <v>36698</v>
       </c>
       <c r="J88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K88">
         <v>28.7</v>
@@ -5845,16 +5839,16 @@
         <v>271</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C89">
         <v>10672</v>
       </c>
       <c r="D89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F89">
         <v>17.1</v>
@@ -5869,7 +5863,7 @@
         <v>36703</v>
       </c>
       <c r="J89" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K89">
         <v>28.3</v>
@@ -5898,16 +5892,16 @@
         <v>274</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C90">
         <v>10646</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E90" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F90">
         <v>17.4</v>
@@ -5922,7 +5916,7 @@
         <v>36698</v>
       </c>
       <c r="J90" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K90">
         <v>29.3409</v>
@@ -5951,16 +5945,16 @@
         <v>277</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C91">
         <v>10681</v>
       </c>
       <c r="D91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F91">
         <v>16.4</v>
@@ -5975,7 +5969,7 @@
         <v>36719</v>
       </c>
       <c r="J91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K91">
         <v>30.3</v>
@@ -6004,16 +5998,16 @@
         <v>280</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C92">
         <v>10684</v>
       </c>
       <c r="D92" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E92" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F92">
         <v>12.7</v>
@@ -6028,7 +6022,7 @@
         <v>36724</v>
       </c>
       <c r="J92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K92">
         <v>30.2</v>
@@ -6057,16 +6051,16 @@
         <v>284</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C93">
         <v>10674</v>
       </c>
       <c r="D93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E93" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F93">
         <v>12.8</v>
@@ -6081,7 +6075,7 @@
         <v>36712</v>
       </c>
       <c r="J93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K93">
         <v>28.6427</v>
@@ -6110,16 +6104,16 @@
         <v>285</v>
       </c>
       <c r="B94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94">
         <v>10674</v>
       </c>
       <c r="D94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F94">
         <v>12.8</v>
@@ -6134,7 +6128,7 @@
         <v>36712</v>
       </c>
       <c r="J94" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K94">
         <v>28.6427</v>
@@ -6163,16 +6157,16 @@
         <v>289</v>
       </c>
       <c r="B95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C95">
         <v>10668</v>
       </c>
       <c r="D95" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F95">
         <v>16</v>
@@ -6187,7 +6181,7 @@
         <v>36719</v>
       </c>
       <c r="J95" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K95">
         <v>30.5</v>
@@ -6216,16 +6210,16 @@
         <v>291</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C96">
         <v>10673</v>
       </c>
       <c r="D96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F96">
         <v>13.1</v>
@@ -6240,7 +6234,7 @@
         <v>36712</v>
       </c>
       <c r="J96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K96">
         <v>29.3</v>
@@ -6269,16 +6263,16 @@
         <v>292</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C97">
         <v>10673</v>
       </c>
       <c r="D97" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F97">
         <v>13.1</v>
@@ -6293,7 +6287,7 @@
         <v>36712</v>
       </c>
       <c r="J97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K97">
         <v>29.3</v>
@@ -6322,16 +6316,16 @@
         <v>298</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C98">
         <v>10769</v>
       </c>
       <c r="D98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F98">
         <v>16</v>
@@ -6346,7 +6340,7 @@
         <v>36733</v>
       </c>
       <c r="J98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K98">
         <v>28.6</v>
@@ -6375,16 +6369,16 @@
         <v>301</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C99">
         <v>10765</v>
       </c>
       <c r="D99" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E99" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F99">
         <v>22.9</v>
@@ -6399,7 +6393,7 @@
         <v>36731</v>
       </c>
       <c r="J99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K99">
         <v>29.4</v>
@@ -6428,16 +6422,16 @@
         <v>304</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100">
         <v>10753</v>
       </c>
       <c r="D100" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E100" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F100">
         <v>24.4</v>
@@ -6452,7 +6446,7 @@
         <v>36731</v>
       </c>
       <c r="J100" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K100">
         <v>29.5</v>
@@ -6481,16 +6475,16 @@
         <v>307</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C101">
         <v>10774</v>
       </c>
       <c r="D101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E101" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F101">
         <v>16.3</v>
@@ -6505,7 +6499,7 @@
         <v>36738</v>
       </c>
       <c r="J101" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K101">
         <v>26.2</v>
@@ -6534,16 +6528,16 @@
         <v>310</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C102">
         <v>10954</v>
       </c>
       <c r="D102" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E102" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F102">
         <v>5.2</v>
@@ -6558,7 +6552,7 @@
         <v>36837</v>
       </c>
       <c r="J102" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K102">
         <v>13.008</v>
@@ -6587,16 +6581,16 @@
         <v>313</v>
       </c>
       <c r="B103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C103">
         <v>10775</v>
       </c>
       <c r="D103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E103" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F103">
         <v>14.2</v>
@@ -6611,7 +6605,7 @@
         <v>36740</v>
       </c>
       <c r="J103" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K103">
         <v>29</v>
@@ -6640,16 +6634,16 @@
         <v>316</v>
       </c>
       <c r="B104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C104">
         <v>10812</v>
       </c>
       <c r="D104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E104" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F104">
         <v>16.2</v>
@@ -6664,7 +6658,7 @@
         <v>36747</v>
       </c>
       <c r="J104" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K104">
         <v>29.5</v>
@@ -6693,16 +6687,16 @@
         <v>319</v>
       </c>
       <c r="B105" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C105">
         <v>10819</v>
       </c>
       <c r="D105" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E105" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F105">
         <v>10.8</v>
@@ -6717,7 +6711,7 @@
         <v>36752</v>
       </c>
       <c r="J105" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K105">
         <v>29.3</v>
@@ -6746,16 +6740,16 @@
         <v>322</v>
       </c>
       <c r="B106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C106">
         <v>10821</v>
       </c>
       <c r="D106" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E106" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F106">
         <v>10.3</v>
@@ -6770,7 +6764,7 @@
         <v>36752</v>
       </c>
       <c r="J106" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -6799,16 +6793,16 @@
         <v>325</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C107">
         <v>10752</v>
       </c>
       <c r="D107" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F107">
         <v>11.1</v>
@@ -6823,7 +6817,7 @@
         <v>36745</v>
       </c>
       <c r="J107" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K107">
         <v>26.1</v>
@@ -6852,16 +6846,16 @@
         <v>328</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C108">
         <v>10815</v>
       </c>
       <c r="D108" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E108" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F108">
         <v>15.6</v>
@@ -6876,7 +6870,7 @@
         <v>36747</v>
       </c>
       <c r="J108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K108">
         <v>29.5</v>
@@ -6905,16 +6899,16 @@
         <v>331</v>
       </c>
       <c r="B109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C109">
         <v>10750</v>
       </c>
       <c r="D109" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E109" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F109">
         <v>11.1</v>
@@ -6929,7 +6923,7 @@
         <v>36740</v>
       </c>
       <c r="J109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K109">
         <v>28.4</v>
@@ -6958,16 +6952,16 @@
         <v>334</v>
       </c>
       <c r="B110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C110">
         <v>10897</v>
       </c>
       <c r="D110" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E110" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F110">
         <v>8.5</v>
@@ -6982,7 +6976,7 @@
         <v>36788</v>
       </c>
       <c r="J110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K110">
         <v>27.1</v>
@@ -7011,16 +7005,16 @@
         <v>337</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C111">
         <v>10892</v>
       </c>
       <c r="D111" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E111" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F111">
         <v>8.1</v>
@@ -7035,7 +7029,7 @@
         <v>36788</v>
       </c>
       <c r="J111" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K111">
         <v>27.2</v>
@@ -7064,16 +7058,16 @@
         <v>339</v>
       </c>
       <c r="B112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C112">
         <v>10822</v>
       </c>
       <c r="D112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E112" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F112">
         <v>20.3</v>
@@ -7088,7 +7082,7 @@
         <v>36754</v>
       </c>
       <c r="J112" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K112">
         <v>29.9</v>
@@ -7117,16 +7111,16 @@
         <v>342</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C113">
         <v>10868</v>
       </c>
       <c r="D113" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E113" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F113">
         <v>11.1</v>
@@ -7141,7 +7135,7 @@
         <v>36761</v>
       </c>
       <c r="J113" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K113">
         <v>26.9</v>
@@ -7170,16 +7164,16 @@
         <v>345</v>
       </c>
       <c r="B114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C114">
         <v>10823</v>
       </c>
       <c r="D114" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E114" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F114">
         <v>21.5</v>
@@ -7194,7 +7188,7 @@
         <v>36754</v>
       </c>
       <c r="J114" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K114">
         <v>30</v>
@@ -7223,16 +7217,16 @@
         <v>348</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C115">
         <v>10827</v>
       </c>
       <c r="D115" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F115">
         <v>22.9</v>
@@ -7247,7 +7241,7 @@
         <v>36759</v>
       </c>
       <c r="J115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K115">
         <v>28.7</v>
@@ -7276,16 +7270,16 @@
         <v>352</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C116">
         <v>10825</v>
       </c>
       <c r="D116" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F116">
         <v>19.3</v>
@@ -7300,7 +7294,7 @@
         <v>36759</v>
       </c>
       <c r="J116" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K116">
         <v>28.7</v>
@@ -7329,16 +7323,16 @@
         <v>353</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C117">
         <v>10825</v>
       </c>
       <c r="D117" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E117" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F117">
         <v>19.3</v>
@@ -7353,7 +7347,7 @@
         <v>36759</v>
       </c>
       <c r="J117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K117">
         <v>28.7</v>
@@ -7382,16 +7376,16 @@
         <v>357</v>
       </c>
       <c r="B118" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C118">
         <v>10952</v>
       </c>
       <c r="D118" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E118" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F118">
         <v>17</v>
@@ -7406,7 +7400,7 @@
         <v>36816</v>
       </c>
       <c r="J118" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K118">
         <v>21.1</v>
@@ -7435,16 +7429,16 @@
         <v>360</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C119">
         <v>10884</v>
       </c>
       <c r="D119" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E119" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F119">
         <v>13</v>
@@ -7459,7 +7453,7 @@
         <v>36832</v>
       </c>
       <c r="J119" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K119">
         <v>24.1618</v>
@@ -7488,16 +7482,16 @@
         <v>363</v>
       </c>
       <c r="B120" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C120">
         <v>10963</v>
       </c>
       <c r="D120" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E120" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F120">
         <v>13.4</v>
@@ -7512,7 +7506,7 @@
         <v>36844</v>
       </c>
       <c r="J120" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -7541,16 +7535,16 @@
         <v>366</v>
       </c>
       <c r="B121" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C121">
         <v>10873</v>
       </c>
       <c r="D121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E121" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F121">
         <v>11.3</v>
@@ -7565,7 +7559,7 @@
         <v>36766</v>
       </c>
       <c r="J121" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K121">
         <v>30.1</v>
@@ -7594,16 +7588,16 @@
         <v>374</v>
       </c>
       <c r="B122" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C122">
         <v>10876</v>
       </c>
       <c r="D122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E122" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F122">
         <v>10.9</v>
@@ -7618,7 +7612,7 @@
         <v>36766</v>
       </c>
       <c r="J122" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K122">
         <v>29.4</v>
@@ -7647,16 +7641,16 @@
         <v>377</v>
       </c>
       <c r="B123" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C123">
         <v>10894</v>
       </c>
       <c r="D123" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E123" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F123">
         <v>8.800000000000001</v>
@@ -7671,7 +7665,7 @@
         <v>36802</v>
       </c>
       <c r="J123" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K123">
         <v>26.6</v>
@@ -7700,16 +7694,16 @@
         <v>380</v>
       </c>
       <c r="B124" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C124">
         <v>10869</v>
       </c>
       <c r="D124" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E124" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F124">
         <v>8.199999999999999</v>
@@ -7724,7 +7718,7 @@
         <v>36761</v>
       </c>
       <c r="J124" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K124">
         <v>26.9</v>
@@ -7753,16 +7747,16 @@
         <v>383</v>
       </c>
       <c r="B125" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C125">
         <v>10988</v>
       </c>
       <c r="D125" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E125" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F125">
         <v>6.2</v>
@@ -7777,7 +7771,7 @@
         <v>36906</v>
       </c>
       <c r="J125" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K125">
         <v>22.3008</v>
@@ -7806,16 +7800,16 @@
         <v>385</v>
       </c>
       <c r="B126" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C126">
         <v>10901</v>
       </c>
       <c r="D126" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E126" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F126">
         <v>6.3</v>
@@ -7830,7 +7824,7 @@
         <v>36781</v>
       </c>
       <c r="J126" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K126">
         <v>10.5941</v>
@@ -7859,16 +7853,16 @@
         <v>390</v>
       </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C127">
         <v>10880</v>
       </c>
       <c r="D127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E127" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F127">
         <v>15.7</v>
@@ -7883,7 +7877,7 @@
         <v>36768</v>
       </c>
       <c r="J127" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K127">
         <v>32.4688</v>
